--- a/Mechanical/Mouser TSynth Rev 1.2 BOM.xlsx
+++ b/Mechanical/Mouser TSynth Rev 1.2 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74c00edc937fedf6/Documents/Arduino/TSynth3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74c00edc937fedf6/Documents/Electronics/TSynth2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{FFB8E69E-7788-4F2C-8252-D52D2C0549C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAA6A506-2101-4D71-BB2C-ED4D6C0D9CCF}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{E5F8C3FE-9D6A-4D3D-A2B2-80193FEBE93A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D1E2EAD-D2C2-48D7-864F-42A6B89D681D}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="2700" windowWidth="19500" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2550" windowWidth="22350" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>642-AKTS22K</t>
   </si>
@@ -245,13 +245,61 @@
   </si>
   <si>
     <t>PTV09A-4025U-B103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568-NYS216G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYS216G </t>
+  </si>
+  <si>
+    <t>REAN / Neutrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Connectors 1/4" STEREO JACK .322" GOLD REAN </t>
+  </si>
+  <si>
+    <t>http://www.rean-connectors.com/en/products/1/4-jacks/nys216g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">855-R30-1002202 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standoffs &amp; Spacers M3 x 22mm THREAD HEX BRASS 5mm A/F </t>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/datasheet/2/181/R30-100-1220592.pdf</t>
+  </si>
+  <si>
+    <t>Harwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30-1002202 </t>
+  </si>
+  <si>
+    <t>$0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">855-R30-3000802 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30-3000802 </t>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/datasheet/2/181/R30-300-1136135.pdf</t>
+  </si>
+  <si>
+    <t>Standoffs &amp; Spacers M3 x 8mm HEX 5mm A/F 6mm ML/FML NICKEL</t>
+  </si>
+  <si>
+    <t>$0.58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +311,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,11 +348,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,11 +680,11 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -655,7 +711,7 @@
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -687,7 +743,7 @@
       <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -719,7 +775,7 @@
       <c r="G3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -751,7 +807,7 @@
       <c r="G4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -783,7 +839,7 @@
       <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -815,7 +871,7 @@
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -847,7 +903,7 @@
       <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -879,7 +935,7 @@
       <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -911,7 +967,7 @@
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -943,7 +999,7 @@
       <c r="G10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -975,7 +1031,7 @@
       <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1007,7 +1063,7 @@
       <c r="G12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1017,56 +1073,185 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="4">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="3">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mechanical/Mouser TSynth Rev 1.2 BOM.xlsx
+++ b/Mechanical/Mouser TSynth Rev 1.2 BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74c00edc937fedf6/Documents/Electronics/TSynth2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{E5F8C3FE-9D6A-4D3D-A2B2-80193FEBE93A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D1E2EAD-D2C2-48D7-864F-42A6B89D681D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2A842AE-8020-42B6-8741-3429E6EC63C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2550" windowWidth="22350" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="840" windowWidth="22350" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>642-AKTS22K</t>
   </si>
@@ -293,6 +293,27 @@
   </si>
   <si>
     <t>$0.58</t>
+  </si>
+  <si>
+    <t>5164-1227-L</t>
+  </si>
+  <si>
+    <t>1227-L</t>
+  </si>
+  <si>
+    <t>Davies Molding</t>
+  </si>
+  <si>
+    <t>Knobs &amp; Dials S/T Control Knob 6mm Interference Fit</t>
+  </si>
+  <si>
+    <t>https://kr.mouser.com/datasheet/2/102/1227-L-1287203.pdf</t>
+  </si>
+  <si>
+    <t>$0.91</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -672,7 +693,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +705,7 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1170,12 +1191,36 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>

--- a/Mechanical/Mouser TSynth Rev 1.2 BOM.xlsx
+++ b/Mechanical/Mouser TSynth Rev 1.2 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2A842AE-8020-42B6-8741-3429E6EC63C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D7B341-181A-47B9-AFF6-1C3AC6DC0D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="840" windowWidth="22350" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1860" windowWidth="22350" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>642-AKTS22K</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>34</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1079,7 @@
         <v>64</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
@@ -1085,7 +1088,7 @@
         <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>54</v>
